--- a/Descargas/R15_1º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Diciembre.xlsx
+++ b/Descargas/R15_1º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Diciembre.xlsx
@@ -327,7 +327,7 @@
     <row r="13">
       <c t="inlineStr" r="A13">
         <is>
-          <t xml:space="preserve">Asociaciones Ilicitas.</t>
+          <t xml:space="preserve">Asociacion Ilicita Art. 28  Ley 19.913</t>
         </is>
       </c>
       <c r="B13" s="65">
@@ -337,7 +337,7 @@
     <row r="14">
       <c t="inlineStr" r="A14">
         <is>
-          <t xml:space="preserve">Cap.grab.dif.registro Audiovisuales Partes Intimas Art.161 C</t>
+          <t xml:space="preserve">Asociaciones Ilicitas.</t>
         </is>
       </c>
       <c r="B14" s="65">
@@ -347,27 +347,27 @@
     <row r="15">
       <c t="inlineStr" r="A15">
         <is>
-          <t xml:space="preserve">Cohecho O Soborno Cometido Por Particular. Art. 250</t>
+          <t xml:space="preserve">Cap.grab.dif.registro Audiovisuales Partes Intimas Art.161 C</t>
         </is>
       </c>
       <c r="B15" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c t="inlineStr" r="A16">
         <is>
-          <t xml:space="preserve">Conduc Bajo La Inf. Del Alcohol  Art 193 Inc. 2 Ley De Trans</t>
+          <t xml:space="preserve">Cohecho O Soborno Cometido Por Particular. Art. 250</t>
         </is>
       </c>
       <c r="B16" s="65">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c t="inlineStr" r="A17">
         <is>
-          <t xml:space="preserve">Conduc.bajo Influen Del Alcohol Con O Sin Daños O Les.leves.</t>
+          <t xml:space="preserve">Conduc Bajo La Inf. Del Alcohol  Art 193 Inc. 2 Ley De Trans</t>
         </is>
       </c>
       <c r="B17" s="65">
@@ -377,17 +377,17 @@
     <row r="18">
       <c t="inlineStr" r="A18">
         <is>
-          <t xml:space="preserve">Conduc.ebriedad Resul.lesiones Grave.art 196 Inc.2Ley.trans.</t>
+          <t xml:space="preserve">Conduc.bajo Influen Del Alcohol Con O Sin Daños O Les.leves.</t>
         </is>
       </c>
       <c r="B18" s="65">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c t="inlineStr" r="A19">
         <is>
-          <t xml:space="preserve">Conduc.ebriedad Resul.lesiones Menos Grave.a196 I.2Ley.trans</t>
+          <t xml:space="preserve">Conduc.ebriedad Resul.lesiones Grave.art 196 Inc.2Ley.trans.</t>
         </is>
       </c>
       <c r="B19" s="65">
@@ -397,207 +397,207 @@
     <row r="20">
       <c t="inlineStr" r="A20">
         <is>
-          <t xml:space="preserve">Conduc.ebriedad Resul.muerte Art.196 Inc.3Ley.transito.</t>
+          <t xml:space="preserve">Conduc.ebriedad Resul.lesiones Menos Grave.a196 I.2Ley.trans</t>
         </is>
       </c>
       <c r="B20" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c t="inlineStr" r="A21">
         <is>
-          <t xml:space="preserve">Conduc.estado De Ebriedad Con O Sin Daños O Lesiones Leves.</t>
+          <t xml:space="preserve">Conduc.ebriedad Resul.muerte Art.196 Inc.3Ley.transito.</t>
         </is>
       </c>
       <c r="B21" s="65">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c t="inlineStr" r="A22">
         <is>
-          <t xml:space="preserve">Conduc.sin La Licencia Debida Art 194 Ley De Transito.</t>
+          <t xml:space="preserve">Conduc.estado De Ebriedad Con O Sin Daños O Lesiones Leves.</t>
         </is>
       </c>
       <c r="B22" s="65">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c t="inlineStr" r="A23">
         <is>
-          <t xml:space="preserve">Consumo/Porte De Drogas En Lugares Calificados (Art. 51).</t>
+          <t xml:space="preserve">Conduc.sin La Licencia Debida Art 194 Ley De Transito.</t>
         </is>
       </c>
       <c r="B23" s="65">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c t="inlineStr" r="A24">
         <is>
-          <t xml:space="preserve">Consumo/Porte En Lug.pub.o Priv.c/Previo Concierto(Art.50).</t>
+          <t xml:space="preserve">Consumo/Porte De Drogas En Lugares Calificados (Art. 51).</t>
         </is>
       </c>
       <c r="B24" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c t="inlineStr" r="A25">
         <is>
-          <t xml:space="preserve">Contra Salud Publica. Arts. 313 A Y 313 B</t>
+          <t xml:space="preserve">Consumo/Porte En Lug.pub.o Priv.c/Previo Concierto(Art.50).</t>
         </is>
       </c>
       <c r="B25" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c t="inlineStr" r="A26">
         <is>
-          <t xml:space="preserve">Contra Salud Pública.  Arts. 313 D Al 315 Y Art. 317.</t>
+          <t xml:space="preserve">Contra Salud Publica. Arts. 313 A Y 313 B</t>
         </is>
       </c>
       <c r="B26" s="65">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c t="inlineStr" r="A27">
         <is>
-          <t xml:space="preserve">Contrab. Infrac A La Ord. De Aduan Art 168. Ley 20.780</t>
+          <t xml:space="preserve">Contra Salud Pública.  Arts. 313 D Al 315 Y Art. 317.</t>
         </is>
       </c>
       <c r="B27" s="65">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28">
       <c t="inlineStr" r="A28">
         <is>
-          <t xml:space="preserve">Cuasidelito De Homicidio.</t>
+          <t xml:space="preserve">Contrab. Infrac A La Ord. De Aduan Art 168. Ley 20.780</t>
         </is>
       </c>
       <c r="B28" s="65">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c t="inlineStr" r="A29">
         <is>
-          <t xml:space="preserve">Cuasidelito De Lesiones: Art 490, 491 Inc 2° Y 492.</t>
+          <t xml:space="preserve">Cuasidelito De Homicidio.</t>
         </is>
       </c>
       <c r="B29" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c t="inlineStr" r="A30">
         <is>
-          <t xml:space="preserve">Cultivo/Cosecha Espec.vegetales Productoras Estupef.(Art.8.</t>
+          <t xml:space="preserve">Cuasidelito De Lesiones: Art 490, 491 Inc 2° Y 492.</t>
         </is>
       </c>
       <c r="B30" s="65">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c t="inlineStr" r="A31">
         <is>
-          <t xml:space="preserve">Daños Simples.</t>
+          <t xml:space="preserve">Cultivo/Cosecha Espec.vegetales Productoras Estupef.(Art.8.</t>
         </is>
       </c>
       <c r="B31" s="65">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
       <c t="inlineStr" r="A32">
         <is>
-          <t xml:space="preserve">Delitos Marcarios.</t>
+          <t xml:space="preserve">Daños Simples.</t>
         </is>
       </c>
       <c r="B32" s="65">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c t="inlineStr" r="A33">
         <is>
-          <t xml:space="preserve">Desacato (Art. 240 Codigo De Procedimiento Civil).</t>
+          <t xml:space="preserve">Delitos Marcarios.</t>
         </is>
       </c>
       <c r="B33" s="65">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c t="inlineStr" r="A34">
         <is>
-          <t xml:space="preserve">Disparos Injustif Vía Pública (Art. 14 D Inc. Final)</t>
+          <t xml:space="preserve">Desacato (Art. 240 Codigo De Procedimiento Civil).</t>
         </is>
       </c>
       <c r="B34" s="65">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c t="inlineStr" r="A35">
         <is>
-          <t xml:space="preserve">Estafas Y Otras Defraudaciones Contra Particulares</t>
+          <t xml:space="preserve">Disparos Injustif Vía Pública (Art. 14 D Inc. Final)</t>
         </is>
       </c>
       <c r="B35" s="65">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c t="inlineStr" r="A36">
         <is>
-          <t xml:space="preserve">Falsificacion De Obras Protegidas Por Ley De Propiedad Intel</t>
+          <t xml:space="preserve">Estafas Y Otras Defraudaciones Contra Particulares</t>
         </is>
       </c>
       <c r="B36" s="65">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
       <c t="inlineStr" r="A37">
         <is>
-          <t xml:space="preserve">Falsificacion Licencia De Conducir Y Otras Falsificaciones.</t>
+          <t xml:space="preserve">Falsificacion De Obras Protegidas Por Ley De Propiedad Intel</t>
         </is>
       </c>
       <c r="B37" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c t="inlineStr" r="A38">
         <is>
-          <t xml:space="preserve">Falsificacion O Uso Maliciosos De Documentos Publicos.</t>
+          <t xml:space="preserve">Falsificacion Licencia De Conducir Y Otras Falsificaciones.</t>
         </is>
       </c>
       <c r="B38" s="65">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
       <c t="inlineStr" r="A39">
         <is>
-          <t xml:space="preserve">Femicidio Intimo Art. 390 Bis</t>
+          <t xml:space="preserve">Falsificacion O Uso Maliciosos De Documentos Publicos.</t>
         </is>
       </c>
       <c r="B39" s="65">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c t="inlineStr" r="A40">
         <is>
-          <t xml:space="preserve">Fraudes Al Fisco Y Organismos Del Estado (Art. 239).</t>
+          <t xml:space="preserve">Femicidio Intimo Art. 390 Bis</t>
         </is>
       </c>
       <c r="B40" s="65">
@@ -607,57 +607,57 @@
     <row r="41">
       <c t="inlineStr" r="A41">
         <is>
-          <t xml:space="preserve">Giro Dol Cheq (Fal Fond) Ac. Penal Priv. Art. 22. Dfl 707</t>
+          <t xml:space="preserve">Fraudes Al Fisco Y Organismos Del Estado (Art. 239).</t>
         </is>
       </c>
       <c r="B41" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c t="inlineStr" r="A42">
         <is>
-          <t xml:space="preserve">Hallazgo De Vehiculo.</t>
+          <t xml:space="preserve">Giro Dol Cheq (Fal Fond) Ac. Penal Priv. Art. 22. Dfl 707</t>
         </is>
       </c>
       <c r="B42" s="65">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c t="inlineStr" r="A43">
         <is>
-          <t xml:space="preserve">Homicidio Calificado.</t>
+          <t xml:space="preserve">Hallazgo De Vehiculo.</t>
         </is>
       </c>
       <c r="B43" s="65">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c t="inlineStr" r="A44">
         <is>
-          <t xml:space="preserve">Homicidio.</t>
+          <t xml:space="preserve">Homicidio Calificado.</t>
         </is>
       </c>
       <c r="B44" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c t="inlineStr" r="A45">
         <is>
-          <t xml:space="preserve">Hurto Agravado (Art. 447 Codigo Penal).</t>
+          <t xml:space="preserve">Homicidio.</t>
         </is>
       </c>
       <c r="B45" s="65">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c t="inlineStr" r="A46">
         <is>
-          <t xml:space="preserve">Hurto Falta (494 Bis Codigo Penal).</t>
+          <t xml:space="preserve">Hurto Agravado (Art. 447 Codigo Penal).</t>
         </is>
       </c>
       <c r="B46" s="65">
@@ -667,57 +667,57 @@
     <row r="47">
       <c t="inlineStr" r="A47">
         <is>
-          <t xml:space="preserve">Hurto Simple Por Un Valor De 4 A 40 Utm.</t>
+          <t xml:space="preserve">Hurto Falta (494 Bis Codigo Penal).</t>
         </is>
       </c>
       <c r="B47" s="65">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c t="inlineStr" r="A48">
         <is>
-          <t xml:space="preserve">Hurto Simple Por Un Valor De Media A Menos De 4 Utm.</t>
+          <t xml:space="preserve">Hurto Simple Por Un Valor De 4 A 40 Utm.</t>
         </is>
       </c>
       <c r="B48" s="65">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
       <c t="inlineStr" r="A49">
         <is>
-          <t xml:space="preserve">Hurto Simple Por Un Valor Sobre 40 Utm.</t>
+          <t xml:space="preserve">Hurto Simple Por Un Valor De Media A Menos De 4 Utm.</t>
         </is>
       </c>
       <c r="B49" s="65">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
       <c t="inlineStr" r="A50">
         <is>
-          <t xml:space="preserve">Incendio C/Peligro Para Las Personas Arts.475 Y 476 N01 Y 2</t>
+          <t xml:space="preserve">Hurto Simple Por Un Valor Sobre 40 Utm.</t>
         </is>
       </c>
       <c r="B50" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
       <c t="inlineStr" r="A51">
         <is>
-          <t xml:space="preserve">Incendio Solo C/Daños O Sin Peligro Propagacion.art.477,478.</t>
+          <t xml:space="preserve">Incendio C/Peligro Para Las Personas Arts.475 Y 476 N01 Y 2</t>
         </is>
       </c>
       <c r="B51" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c t="inlineStr" r="A52">
         <is>
-          <t xml:space="preserve">Infracciones Al Cod. Aeronautico (Arts. 190, 194 Bis, 195 A.</t>
+          <t xml:space="preserve">Incendio Solo C/Daños O Sin Peligro Propagacion.art.477,478.</t>
         </is>
       </c>
       <c r="B52" s="65">
@@ -727,107 +727,107 @@
     <row r="53">
       <c t="inlineStr" r="A53">
         <is>
-          <t xml:space="preserve">Infringir Normas Higiénicas Y De Salubridad</t>
+          <t xml:space="preserve">Infracciones Al Cod. Aeronautico (Arts. 190, 194 Bis, 195 A.</t>
         </is>
       </c>
       <c r="B53" s="65">
-        <v>266</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c t="inlineStr" r="A54">
         <is>
-          <t xml:space="preserve">Injuria (Accion Privada).</t>
+          <t xml:space="preserve">Infringir Normas Higiénicas Y De Salubridad</t>
         </is>
       </c>
       <c r="B54" s="65">
-        <v>3</v>
+        <v>267</v>
       </c>
     </row>
     <row r="55">
       <c t="inlineStr" r="A55">
         <is>
-          <t xml:space="preserve">Lavado De Dinero Persona Natural Art. 27  Ley 19.913</t>
+          <t xml:space="preserve">Injuria (Accion Privada).</t>
         </is>
       </c>
       <c r="B55" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
       <c t="inlineStr" r="A56">
         <is>
-          <t xml:space="preserve">Lesiones Graves.</t>
+          <t xml:space="preserve">Lavado De Dinero Persona Natural Art. 27  Ley 19.913</t>
         </is>
       </c>
       <c r="B56" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c t="inlineStr" r="A57">
         <is>
-          <t xml:space="preserve">Lesiones Leves.</t>
+          <t xml:space="preserve">Lesiones Graves.</t>
         </is>
       </c>
       <c r="B57" s="65">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
       <c t="inlineStr" r="A58">
         <is>
-          <t xml:space="preserve">Lesiones Menos Graves.</t>
+          <t xml:space="preserve">Lesiones Leves.</t>
         </is>
       </c>
       <c r="B58" s="65">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59">
       <c t="inlineStr" r="A59">
         <is>
-          <t xml:space="preserve">Maltrato Habitual(Violencia Intrafamiliar) (Art. 14).</t>
+          <t xml:space="preserve">Lesiones Menos Graves.</t>
         </is>
       </c>
       <c r="B59" s="65">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60">
       <c t="inlineStr" r="A60">
         <is>
-          <t xml:space="preserve">Maltrato Obra A Carabineros Art. 416 Bis Codigo Just.militar</t>
+          <t xml:space="preserve">Maltrato Habitual(Violencia Intrafamiliar) (Art. 14).</t>
         </is>
       </c>
       <c r="B60" s="65">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
       <c t="inlineStr" r="A61">
         <is>
-          <t xml:space="preserve">Muertes Y Hallazgo De Cadaver.</t>
+          <t xml:space="preserve">Maltrato Obra A Carabineros Art. 416 Bis Codigo Just.militar</t>
         </is>
       </c>
       <c r="B61" s="65">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
       <c t="inlineStr" r="A62">
         <is>
-          <t xml:space="preserve">Negativa A Efectuarse Examen. Art. 195 Bis Ley  De Transito</t>
+          <t xml:space="preserve">Muertes Y Hallazgo De Cadaver.</t>
         </is>
       </c>
       <c r="B62" s="65">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
       <c t="inlineStr" r="A63">
         <is>
-          <t xml:space="preserve">No Dar Cuenta De Accidente De Transitoart. 195Ley De Tra.</t>
+          <t xml:space="preserve">Negativa A Efectuarse Examen. Art. 195 Bis Ley  De Transito</t>
         </is>
       </c>
       <c r="B63" s="65">
@@ -837,137 +837,137 @@
     <row r="64">
       <c t="inlineStr" r="A64">
         <is>
-          <t xml:space="preserve">Ocultamiento De Placa Patente (Art. 192 Letra E)</t>
+          <t xml:space="preserve">No Dar Cuenta De Accidente De Transitoart. 195Ley De Tra.</t>
         </is>
       </c>
       <c r="B64" s="65">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c t="inlineStr" r="A65">
         <is>
-          <t xml:space="preserve">Ofensas Al Pudor (495 Nr 5 Codigo Penal).</t>
+          <t xml:space="preserve">Ocultamiento De Placa Patente (Art. 192 Letra E)</t>
         </is>
       </c>
       <c r="B65" s="65">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66">
       <c t="inlineStr" r="A66">
         <is>
-          <t xml:space="preserve">Otras Infrac A La  Ordenanza  Aduanas. Ley 20.780</t>
+          <t xml:space="preserve">Ofensas Al Pudor (495 Nr 5 Codigo Penal).</t>
         </is>
       </c>
       <c r="B66" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c t="inlineStr" r="A67">
         <is>
-          <t xml:space="preserve">Otros Delitos Contra La Ley De Propiedad Intelectual.</t>
+          <t xml:space="preserve">Otras Infrac A La  Ordenanza  Aduanas. Ley 20.780</t>
         </is>
       </c>
       <c r="B67" s="65">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c t="inlineStr" r="A68">
         <is>
-          <t xml:space="preserve">Otros Delitos Contra La Ley Del Transito.</t>
+          <t xml:space="preserve">Otros Delitos Contra La Ley De Propiedad Intelectual.</t>
         </is>
       </c>
       <c r="B68" s="65">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
       <c t="inlineStr" r="A69">
         <is>
-          <t xml:space="preserve">Otros Delitos Contra La Propiedad</t>
+          <t xml:space="preserve">Otros Delitos Contra La Ley Del Transito.</t>
         </is>
       </c>
       <c r="B69" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c t="inlineStr" r="A70">
         <is>
-          <t xml:space="preserve">Otros Delitos Contra Las Personas</t>
+          <t xml:space="preserve">Otros Delitos Contra La Propiedad</t>
         </is>
       </c>
       <c r="B70" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c t="inlineStr" r="A71">
         <is>
-          <t xml:space="preserve">Otros Delitos Contra Ley De Propiedad Industrial.</t>
+          <t xml:space="preserve">Otros Delitos Contra Las Personas</t>
         </is>
       </c>
       <c r="B71" s="65">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
       <c t="inlineStr" r="A72">
         <is>
-          <t xml:space="preserve">Otros Delitos De La Ley De Control De Armas (Ley 17.798)</t>
+          <t xml:space="preserve">Otros Delitos Contra Ley De Propiedad Industrial.</t>
         </is>
       </c>
       <c r="B72" s="65">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73">
       <c t="inlineStr" r="A73">
         <is>
-          <t xml:space="preserve">Otros Hechos Que No Constituyan Delito: Agrup.1008,1009,1011</t>
+          <t xml:space="preserve">Otros Delitos De La Ley De Control De Armas (Ley 17.798)</t>
         </is>
       </c>
       <c r="B73" s="65">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
       <c t="inlineStr" r="A74">
         <is>
-          <t xml:space="preserve">Portar Elemento Conocidamente Destinados Cometer Delito Robo</t>
+          <t xml:space="preserve">Otros Hechos Que No Constituyan Delito: Agrup.1008,1009,1011</t>
         </is>
       </c>
       <c r="B74" s="65">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75">
       <c t="inlineStr" r="A75">
         <is>
-          <t xml:space="preserve">Porte De Arma Cortante O Punzante (288 Bis).</t>
+          <t xml:space="preserve">Portar Elemento Conocidamente Destinados Cometer Delito Robo</t>
         </is>
       </c>
       <c r="B75" s="65">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c t="inlineStr" r="A76">
         <is>
-          <t xml:space="preserve">Porte De Arma Prohibida (Art. 14 Inc. 1°)</t>
+          <t xml:space="preserve">Porte De Arma Cortante O Punzante (288 Bis).</t>
         </is>
       </c>
       <c r="B76" s="65">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
       <c t="inlineStr" r="A77">
         <is>
-          <t xml:space="preserve">Posesión O Tenencia De Armas Prohibidas</t>
+          <t xml:space="preserve">Porte De Arma Prohibida (Art. 14 Inc. 1°)</t>
         </is>
       </c>
       <c r="B77" s="65">
@@ -977,157 +977,157 @@
     <row r="78">
       <c t="inlineStr" r="A78">
         <is>
-          <t xml:space="preserve">Posesión Tenencia O Porte De Mun Y Sust Químicas</t>
+          <t xml:space="preserve">Posesión O Tenencia De Armas Prohibidas</t>
         </is>
       </c>
       <c r="B78" s="65">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
       <c t="inlineStr" r="A79">
         <is>
-          <t xml:space="preserve">Posesión, Tenencia O Porte De Armas Sujetas A Control</t>
+          <t xml:space="preserve">Posesión Tenencia O Porte De Mun Y Sust Químicas</t>
         </is>
       </c>
       <c r="B79" s="65">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
       <c t="inlineStr" r="A80">
         <is>
-          <t xml:space="preserve">Presunta Desgracia Infantil.</t>
+          <t xml:space="preserve">Posesión, Tenencia O Porte De Armas Sujetas A Control</t>
         </is>
       </c>
       <c r="B80" s="65">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
       <c t="inlineStr" r="A81">
         <is>
-          <t xml:space="preserve">Presunta Desgracia.</t>
+          <t xml:space="preserve">Presunta Desgracia Infantil.</t>
         </is>
       </c>
       <c r="B81" s="65">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
       <c t="inlineStr" r="A82">
         <is>
-          <t xml:space="preserve">Quebrantamiento.</t>
+          <t xml:space="preserve">Presunta Desgracia.</t>
         </is>
       </c>
       <c r="B82" s="65">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83">
       <c t="inlineStr" r="A83">
         <is>
-          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
+          <t xml:space="preserve">Quebrantamiento.</t>
         </is>
       </c>
       <c r="B83" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c t="inlineStr" r="A84">
         <is>
-          <t xml:space="preserve">Receptación De Vehículos Motorizados</t>
+          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
         </is>
       </c>
       <c r="B84" s="65">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c t="inlineStr" r="A85">
         <is>
-          <t xml:space="preserve">Riña Pública (496 Nº 10 Código Penal).</t>
+          <t xml:space="preserve">Receptación De Vehículos Motorizados</t>
         </is>
       </c>
       <c r="B85" s="65">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86">
       <c t="inlineStr" r="A86">
         <is>
-          <t xml:space="preserve">Robo Con Intimidacion.</t>
+          <t xml:space="preserve">Riña Pública (496 Nº 10 Código Penal).</t>
         </is>
       </c>
       <c r="B86" s="65">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c t="inlineStr" r="A87">
         <is>
-          <t xml:space="preserve">Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
+          <t xml:space="preserve">Robo Con Intimidacion.</t>
         </is>
       </c>
       <c r="B87" s="65">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88">
       <c t="inlineStr" r="A88">
         <is>
-          <t xml:space="preserve">Robo En Bienes Nacionales De Uso Publico O Sitiosno Destin.</t>
+          <t xml:space="preserve">Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
         </is>
       </c>
       <c r="B88" s="65">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
       <c t="inlineStr" r="A89">
         <is>
-          <t xml:space="preserve">Robo En Lugar Habitado O Destinado A La Habitacion.</t>
+          <t xml:space="preserve">Robo En Bienes Nacionales De Uso Publico O Sitiosno Destin.</t>
         </is>
       </c>
       <c r="B89" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
       <c t="inlineStr" r="A90">
         <is>
-          <t xml:space="preserve">Robo En Lugar No Habitado.</t>
+          <t xml:space="preserve">Robo En Lugar Habitado O Destinado A La Habitacion.</t>
         </is>
       </c>
       <c r="B90" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c t="inlineStr" r="A91">
         <is>
-          <t xml:space="preserve">Robo Por Sorpresa.</t>
+          <t xml:space="preserve">Robo En Lugar No Habitado.</t>
         </is>
       </c>
       <c r="B91" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
       <c t="inlineStr" r="A92">
         <is>
-          <t xml:space="preserve">Soborno.art. 250. Persona  Juridica</t>
+          <t xml:space="preserve">Robo Por Sorpresa.</t>
         </is>
       </c>
       <c r="B92" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
       <c t="inlineStr" r="A93">
         <is>
-          <t xml:space="preserve">Sustraccion De Menores.</t>
+          <t xml:space="preserve">Soborno.art. 250. Persona  Juridica</t>
         </is>
       </c>
       <c r="B93" s="65">
@@ -1137,7 +1137,7 @@
     <row r="94">
       <c t="inlineStr" r="A94">
         <is>
-          <t xml:space="preserve">Torturas Cometidas P/Funcionarios Publ.(Art. 150, A Inc 1°)</t>
+          <t xml:space="preserve">Sustraccion De Menores.</t>
         </is>
       </c>
       <c r="B94" s="65">
@@ -1147,37 +1147,37 @@
     <row r="95">
       <c t="inlineStr" r="A95">
         <is>
-          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
+          <t xml:space="preserve">Torturas Cometidas P/Funcionarios Publ.(Art. 150, A Inc 1°)</t>
         </is>
       </c>
       <c r="B95" s="65">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c t="inlineStr" r="A96">
         <is>
-          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
+          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
         </is>
       </c>
       <c r="B96" s="65">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97">
       <c t="inlineStr" r="A97">
         <is>
-          <t xml:space="preserve">Uso Fraudulento De Tarjetas O Medios De Pago. Ley 20.009</t>
+          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
         </is>
       </c>
       <c r="B97" s="65">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98">
       <c t="inlineStr" r="A98">
         <is>
-          <t xml:space="preserve">Usurpacion De Nombre.</t>
+          <t xml:space="preserve">Uso Fraudulento De Tarjetas O Medios De Pago. Ley 20.009</t>
         </is>
       </c>
       <c r="B98" s="65">
@@ -1187,10 +1187,20 @@
     <row r="99">
       <c t="inlineStr" r="A99">
         <is>
+          <t xml:space="preserve">Usurpacion De Nombre.</t>
+        </is>
+      </c>
+      <c r="B99" s="65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c t="inlineStr" r="A100">
+        <is>
           <t xml:space="preserve">Usurpacion No Violenta (Art. 458 Codigo Penal).</t>
         </is>
       </c>
-      <c r="B99" s="65">
+      <c r="B100" s="65">
         <v>1</v>
       </c>
     </row>
